--- a/results/200/optimal_result.xlsx
+++ b/results/200/optimal_result.xlsx
@@ -31559,56 +31559,56 @@
       <c r="G2" t="n">
         <v>-1</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>0</v>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1</v>
       </c>
       <c r="Y2" t="n">
         <v>-1</v>
@@ -31639,53 +31639,53 @@
       <c r="H3" t="n">
         <v>-1</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-1</v>
       </c>
       <c r="Y3" t="n">
         <v>-1</v>
@@ -31818,22 +31818,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>293.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>289.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>289.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>291.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -31848,13 +31848,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>275.8</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -31898,22 +31898,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>265.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>274.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -31925,13 +31925,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
